--- a/myapp/files/9_MethodComparePercent/Scenario 298.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 298.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>12999</v>
+        <v>30595</v>
       </c>
       <c r="F2" t="n">
-        <v>11.8110450853186</v>
+        <v>7.45555785702972</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -593,16 +593,16 @@
         <v>5.97014925373134</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>12.1212121212121</v>
+        <v>7.58928571428571</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>13.4328358208955</v>
+        <v>14.9253731343284</v>
       </c>
     </row>
     <row r="3">
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>10157</v>
+        <v>32379</v>
       </c>
       <c r="F3" t="n">
-        <v>9.22877028475895</v>
+        <v>7.89029278812764</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J3" t="n">
-        <v>10.6060606060606</v>
+        <v>8.48214285714286</v>
       </c>
       <c r="K3" t="n">
         <v>6</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>5460</v>
+        <v>26594</v>
       </c>
       <c r="F4" t="n">
-        <v>4.96102055279943</v>
+        <v>6.48057217355281</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
@@ -669,10 +669,10 @@
         <v>8.95522388059702</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>4.54545454545454</v>
+        <v>5.80357142857143</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>7849</v>
+        <v>19469</v>
       </c>
       <c r="F5" t="n">
-        <v>7.1316941976049</v>
+        <v>4.74431298965555</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -707,10 +707,10 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>7.57575757575758</v>
+        <v>6.25</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>8778</v>
+        <v>16291</v>
       </c>
       <c r="F6" t="n">
-        <v>7.97579458103909</v>
+        <v>3.9698804722625</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>9.09090909090909</v>
+        <v>5.80357142857143</v>
       </c>
       <c r="K6" t="n">
         <v>6</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3.09480584357828</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4.01785714285714</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>3899</v>
+        <v>33174</v>
       </c>
       <c r="F8" t="n">
-        <v>3.5426774973196</v>
+        <v>8.08402276022565</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
@@ -821,16 +821,16 @@
         <v>10.4477611940299</v>
       </c>
       <c r="I8" t="n">
+        <v>16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.14285714285714</v>
+      </c>
+      <c r="K8" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
       <c r="L8" t="n">
-        <v>4.47761194029851</v>
+        <v>2.98507462686567</v>
       </c>
     </row>
     <row r="9">
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>5502</v>
+        <v>34749</v>
       </c>
       <c r="F9" t="n">
-        <v>4.99918224935943</v>
+        <v>8.46782742192926</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -859,16 +859,16 @@
         <v>4.47761194029851</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>4.54545454545454</v>
+        <v>7.58928571428571</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>8.95522388059702</v>
+        <v>7.46268656716418</v>
       </c>
     </row>
     <row r="10">
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>6633</v>
+        <v>20258</v>
       </c>
       <c r="F10" t="n">
-        <v>6.02682222101074</v>
+        <v>4.93658084875659</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
@@ -897,10 +897,10 @@
         <v>7.46268656716418</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J10" t="n">
-        <v>4.54545454545454</v>
+        <v>7.14285714285714</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>5979</v>
+        <v>11526</v>
       </c>
       <c r="F11" t="n">
-        <v>5.43259008886224</v>
+        <v>2.80871906717191</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>4.54545454545454</v>
+        <v>4.01785714285714</v>
       </c>
       <c r="K11" t="n">
         <v>5</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>4123</v>
+        <v>8151</v>
       </c>
       <c r="F12" t="n">
-        <v>3.74620654563957</v>
+        <v>1.98628050637847</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.03030303030303</v>
+        <v>2.23214285714286</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5026</v>
+        <v>23908</v>
       </c>
       <c r="F13" t="n">
-        <v>4.56668302167948</v>
+        <v>5.82603292191098</v>
       </c>
       <c r="G13" t="n">
         <v>10</v>
@@ -1011,10 +1011,10 @@
         <v>14.9253731343284</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>7.57575757575758</v>
+        <v>5.80357142857143</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>17238</v>
+        <v>48963</v>
       </c>
       <c r="F14" t="n">
-        <v>15.6626506024096</v>
+        <v>11.931573111742</v>
       </c>
       <c r="G14" t="n">
         <v>11</v>
@@ -1049,16 +1049,16 @@
         <v>16.4179104477612</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>10.6060606060606</v>
+        <v>6.69642857142857</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L14" t="n">
-        <v>16.4179104477612</v>
+        <v>17.910447761194</v>
       </c>
     </row>
     <row r="15">
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>3578</v>
+        <v>19368</v>
       </c>
       <c r="F15" t="n">
-        <v>3.25101310218249</v>
+        <v>4.71970075420662</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -1087,16 +1087,16 @@
         <v>7.46268656716418</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>9.09090909090909</v>
+        <v>7.14285714285714</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.98507462686567</v>
+        <v>1.49253731343284</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>1377</v>
+        <v>1921</v>
       </c>
       <c r="F16" t="n">
-        <v>1.25115848007414</v>
+        <v>0.468119844528651</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1125,10 +1125,10 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.51515151515152</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3159</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.76980249290266</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.16791149342658</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.23214285714286</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>12636</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.07920997161064</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
@@ -1239,10 +1239,10 @@
         <v>7.46268656716418</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7157</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.74405711988108</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1277,10 +1277,10 @@
         <v>4.47761194029851</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2.23214285714286</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.219316949544917</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.446428571428571</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1920</v>
+        <v>3605</v>
       </c>
       <c r="F22" t="n">
-        <v>1.74453469988551</v>
+        <v>0.878486225677141</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.51515151515152</v>
+        <v>1.33928571428571</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2430</v>
+        <v>8079</v>
       </c>
       <c r="F23" t="n">
-        <v>2.20792672954261</v>
+        <v>1.96873515041487</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.51515151515152</v>
+        <v>1.33928571428571</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2430</v>
+        <v>7209</v>
       </c>
       <c r="F24" t="n">
-        <v>2.20792672954261</v>
+        <v>1.75672876585479</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.51515151515152</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>2430</v>
+        <v>6849</v>
       </c>
       <c r="F25" t="n">
-        <v>2.20792672954261</v>
+        <v>1.66900198603682</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.51515151515152</v>
+        <v>1.33928571428571</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>2250</v>
+        <v>7725</v>
       </c>
       <c r="F26" t="n">
-        <v>2.04437660142834</v>
+        <v>1.88247048359387</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.51515151515152</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
